--- a/track_mantenimiento.xlsx
+++ b/track_mantenimiento.xlsx
@@ -19,10 +19,10 @@
     <t>problema</t>
   </si>
   <si>
-    <t>electrico</t>
+    <t>mecanico</t>
   </si>
   <si>
-    <t>E</t>
+    <t>Problema en la unidad 2</t>
   </si>
 </sst>
 </file>

--- a/track_mantenimiento.xlsx
+++ b/track_mantenimiento.xlsx
@@ -1,61 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A945DBE-32AE-48D5-A240-3CF437A2E696}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="track_mantenimiento" r:id="rId4"/>
+    <sheet name="track_mantenimiento" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>problema</t>
+    <t>TIPO DE PROBLEMA</t>
   </si>
   <si>
-    <t>mecanico</t>
+    <t>COMENTARIO</t>
   </si>
   <si>
-    <t>Problema en la unidad 2</t>
+    <t>FECHA DEL PROBLEMA</t>
+  </si>
+  <si>
+    <t>HORA DEL PROBLEMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.00; ($#,##0.00); -"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FFFF0800"/>
-      <family val="1"/>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,13 +71,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,28 +414,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/track_mantenimiento.xlsx
+++ b/track_mantenimiento.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A945DBE-32AE-48D5-A240-3CF437A2E696}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="track_mantenimiento" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="track_mantenimiento" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>TIPO DE PROBLEMA</t>
   </si>
@@ -27,27 +26,39 @@
   </si>
   <si>
     <t>HORA DEL PROBLEMA</t>
+  </si>
+  <si>
+    <t>Electrico</t>
+  </si>
+  <si>
+    <t>compresor detenido</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1:49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -414,14 +425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
@@ -443,25 +454,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="55.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43232.168107731486</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43232.168107731486</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="48" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -497,18 +532,18 @@
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/track_mantenimiento.xlsx
+++ b/track_mantenimiento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="197">
   <si>
     <t>TIPO DE PROBLEMA</t>
   </si>
@@ -38,6 +38,574 @@
   </si>
   <si>
     <t>1:49</t>
+  </si>
+  <si>
+    <t>problema en la linea 6</t>
+  </si>
+  <si>
+    <t>problema en la linea 8</t>
+  </si>
+  <si>
+    <t>problema linea 10</t>
+  </si>
+  <si>
+    <t>Mecanico</t>
+  </si>
+  <si>
+    <t>problema linea 11</t>
+  </si>
+  <si>
+    <t>problema en rb1</t>
+  </si>
+  <si>
+    <t>Problema en el motor principal</t>
+  </si>
+  <si>
+    <t>Problema en plancha de pegado</t>
+  </si>
+  <si>
+    <t>23:33</t>
+  </si>
+  <si>
+    <t>problema en el rebobinado 1</t>
+  </si>
+  <si>
+    <t>problema en el calefactor de la linea 4</t>
+  </si>
+  <si>
+    <t>23:38</t>
+  </si>
+  <si>
+    <t>Problema en la linea 10</t>
+  </si>
+  <si>
+    <t>23:39</t>
+  </si>
+  <si>
+    <t>problema en calefactor linea 1</t>
+  </si>
+  <si>
+    <t>problema linea 1</t>
+  </si>
+  <si>
+    <t>problema en la pata de cabra linea 4</t>
+  </si>
+  <si>
+    <t>falla en motor</t>
+  </si>
+  <si>
+    <t>23:53</t>
+  </si>
+  <si>
+    <t>falla en compresor</t>
+  </si>
+  <si>
+    <t>falla en linea 1</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>falla en linea 8</t>
+  </si>
+  <si>
+    <t>problema en tablero general</t>
+  </si>
+  <si>
+    <t>problema en termocupla de linea 8</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>problema en la linea 10</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>problema en linea 5</t>
+  </si>
+  <si>
+    <t>0:31</t>
+  </si>
+  <si>
+    <t>problema compresor</t>
+  </si>
+  <si>
+    <t>0:36</t>
+  </si>
+  <si>
+    <t>falla pata de cabra 2</t>
+  </si>
+  <si>
+    <t>0:39</t>
+  </si>
+  <si>
+    <t>problema en rebobinado</t>
+  </si>
+  <si>
+    <t>0:43</t>
+  </si>
+  <si>
+    <t>problema en rebobinador2</t>
+  </si>
+  <si>
+    <t>0:53</t>
+  </si>
+  <si>
+    <t>problema en linea 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problema en motor </t>
+  </si>
+  <si>
+    <t>0:56</t>
+  </si>
+  <si>
+    <t>problema en pata de cabra</t>
+  </si>
+  <si>
+    <t>0:58</t>
+  </si>
+  <si>
+    <t>problema termocupla linea 1</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>falla compresor</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>falla rb1</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>falla rb2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1:12</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>1:15</t>
+  </si>
+  <si>
+    <t>problema linea 2
+</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>compresor 2</t>
+  </si>
+  <si>
+    <t>1:21</t>
+  </si>
+  <si>
+    <t>compresor 3</t>
+  </si>
+  <si>
+    <t>linea 4</t>
+  </si>
+  <si>
+    <t>1:22</t>
+  </si>
+  <si>
+    <t>linea 9</t>
+  </si>
+  <si>
+    <t>1:23</t>
+  </si>
+  <si>
+    <t>compresor</t>
+  </si>
+  <si>
+    <t>1:26</t>
+  </si>
+  <si>
+    <t>linea 8</t>
+  </si>
+  <si>
+    <t>1:30</t>
+  </si>
+  <si>
+    <t>linea 3</t>
+  </si>
+  <si>
+    <t>linea 5</t>
+  </si>
+  <si>
+    <t>1:31</t>
+  </si>
+  <si>
+    <t>1:33</t>
+  </si>
+  <si>
+    <t>line 6</t>
+  </si>
+  <si>
+    <t>line 9</t>
+  </si>
+  <si>
+    <t>1:34</t>
+  </si>
+  <si>
+    <t>linea 10</t>
+  </si>
+  <si>
+    <t>1:35</t>
+  </si>
+  <si>
+    <t>termocupla</t>
+  </si>
+  <si>
+    <t>1:41</t>
+  </si>
+  <si>
+    <t>1:43</t>
+  </si>
+  <si>
+    <t>1:46</t>
+  </si>
+  <si>
+    <t>1:47</t>
+  </si>
+  <si>
+    <t>linea 7</t>
+  </si>
+  <si>
+    <t>1:48</t>
+  </si>
+  <si>
+    <t>1:51</t>
+  </si>
+  <si>
+    <t>1:52</t>
+  </si>
+  <si>
+    <t>linea 1</t>
+  </si>
+  <si>
+    <t>1:53</t>
+  </si>
+  <si>
+    <t>1:54</t>
+  </si>
+  <si>
+    <t>1:59</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>line a 3</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>2:8</t>
+  </si>
+  <si>
+    <t>line&lt; 2</t>
+  </si>
+  <si>
+    <t>2:13</t>
+  </si>
+  <si>
+    <t>2:14</t>
+  </si>
+  <si>
+    <t>2:16</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>2:17</t>
+  </si>
+  <si>
+    <t>2:18</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>2:22</t>
+  </si>
+  <si>
+    <t>2:24</t>
+  </si>
+  <si>
+    <t>linea 6</t>
+  </si>
+  <si>
+    <t>2:25</t>
+  </si>
+  <si>
+    <t>2:26</t>
+  </si>
+  <si>
+    <t>2:29</t>
+  </si>
+  <si>
+    <t>2:30</t>
+  </si>
+  <si>
+    <t>2:34</t>
+  </si>
+  <si>
+    <t>2:37</t>
+  </si>
+  <si>
+    <t>fila 9</t>
+  </si>
+  <si>
+    <t>2:38</t>
+  </si>
+  <si>
+    <t>2:42</t>
+  </si>
+  <si>
+    <t>2:44</t>
+  </si>
+  <si>
+    <t>2:45</t>
+  </si>
+  <si>
+    <t>2:50</t>
+  </si>
+  <si>
+    <t>2:51</t>
+  </si>
+  <si>
+    <t>2:52</t>
+  </si>
+  <si>
+    <t>2:54</t>
+  </si>
+  <si>
+    <t>2:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            </t>
+  </si>
+  <si>
+    <t>21:12</t>
+  </si>
+  <si>
+    <t>21:13</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>21:18</t>
+  </si>
+  <si>
+    <t>21:21</t>
+  </si>
+  <si>
+    <t>pata 3</t>
+  </si>
+  <si>
+    <t>21:22</t>
+  </si>
+  <si>
+    <t>pata 8</t>
+  </si>
+  <si>
+    <t>21:27</t>
+  </si>
+  <si>
+    <t>pata 5</t>
+  </si>
+  <si>
+    <t>pata 4</t>
+  </si>
+  <si>
+    <t>21:28</t>
+  </si>
+  <si>
+    <t>21:29</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>pata 11</t>
+  </si>
+  <si>
+    <t>pata 10</t>
+  </si>
+  <si>
+    <t>21:31</t>
+  </si>
+  <si>
+    <t>termocupla lastre derecho</t>
+  </si>
+  <si>
+    <t>21:35</t>
+  </si>
+  <si>
+    <t>termocupla linea 6</t>
+  </si>
+  <si>
+    <t>21:36</t>
+  </si>
+  <si>
+    <t>21:37</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>21:38</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>21:39</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>21:43</t>
+  </si>
+  <si>
+    <t>21:54</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>22:12</t>
+  </si>
+  <si>
+    <t>22:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>22:24</t>
+  </si>
+  <si>
+    <t>22:25</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>pata de cabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eléctrico </t>
+  </si>
+  <si>
+    <t>pata 2</t>
+  </si>
+  <si>
+    <t>22:27</t>
+  </si>
+  <si>
+    <t>22:28</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>22:32</t>
+  </si>
+  <si>
+    <t>22:33</t>
+  </si>
+  <si>
+    <t>22:34</t>
+  </si>
+  <si>
+    <t>22:38</t>
+  </si>
+  <si>
+    <t>\S</t>
+  </si>
+  <si>
+    <t>22:39</t>
+  </si>
+  <si>
+    <t>22:40</t>
+  </si>
+  <si>
+    <t>22:47</t>
+  </si>
+  <si>
+    <t>22:48</t>
+  </si>
+  <si>
+    <t>22:49</t>
+  </si>
+  <si>
+    <t>22:51</t>
+  </si>
+  <si>
+    <t>22:52</t>
+  </si>
+  <si>
+    <t>22:56</t>
+  </si>
+  <si>
+    <t>22:58</t>
+  </si>
+  <si>
+    <t>22:59</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>23:1</t>
+  </si>
+  <si>
+    <t>23:2</t>
+  </si>
+  <si>
+    <t>23:5</t>
+  </si>
+  <si>
+    <t>23:6</t>
   </si>
 </sst>
 </file>
@@ -101,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -112,6 +680,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -499,48 +1068,2796 @@
     <row r="5" ht="60" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="3">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="3">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="3">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43232.20074861111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43233.10190359954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43233.10421716435</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43233.10421716435</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43233.10677056713</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43233.10677056713</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43233.10677056713</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43233.10677056713</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43233.10985865741</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43233.10985865741</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43233.11108959491</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43233.11108959491</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43233.11108959491</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43233.11108959491</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43233.11108959491</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43233.11108959491</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43233.11108959491</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43233.11108959491</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43233.1619594213</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43233.1619594213</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43233.171932453704</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43233.171932453704</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43233.171932453704</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43233.175996261576</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43233.17702452546</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43233.18874690973</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43233.192171620365</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43233.194244722225</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43233.19666311343</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43233.19685724537</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43233.20366465278</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43233.20396167824</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43233.2056905787</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43233.20582186343</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43233.2073368287</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43233.21342478009</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43233.21509655092</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="4">
+        <v>43233.2154977662</v>
+      </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4">
+        <v>43233.215729351854</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="4">
+        <v>43233.21575378472</v>
+      </c>
+      <c r="D60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="4">
+        <v>43233.21577569444</v>
+      </c>
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="4">
+        <v>43233.21578967593</v>
+      </c>
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="4">
+        <v>43233.21580311343</v>
+      </c>
+      <c r="D63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="4">
+        <v>43233.21581401621</v>
+      </c>
+      <c r="D64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="4">
+        <v>43233.216684872685</v>
+      </c>
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="4">
+        <v>43233.21795697916</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="4">
+        <v>43233.21879233797</v>
+      </c>
+      <c r="D67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="4">
+        <v>43233.220484606485</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="4">
+        <v>43233.22148201389</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="4">
+        <v>43233.223050138884</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="4">
+        <v>43233.22325822916</v>
+      </c>
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="4">
+        <v>43233.22412068287</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="4">
+        <v>43233.22469163194</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="4">
+        <v>43233.226803530095</v>
+      </c>
+      <c r="D74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="4">
+        <v>43233.2293915162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="4">
+        <v>43233.2294802199</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="4">
+        <v>43233.23046289352</v>
+      </c>
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="4">
+        <v>43233.23158086806</v>
+      </c>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="4">
+        <v>43233.23183837963</v>
+      </c>
+      <c r="D79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="4">
+        <v>43233.23257571759</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="4">
+        <v>43233.23264032407</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="4">
+        <v>43233.23700296297</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="4">
+        <v>43233.23746739583</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="4">
+        <v>43233.23871585648</v>
+      </c>
+      <c r="D84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="4">
+        <v>43233.24036703704</v>
+      </c>
+      <c r="D85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="4">
+        <v>43233.24152607639</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="4">
+        <v>43233.241831782405</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="4">
+        <v>43233.242468020835</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="4">
+        <v>43233.244379814816</v>
+      </c>
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="4">
+        <v>43233.24468270833</v>
+      </c>
+      <c r="D90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="4">
+        <v>43233.24569581018</v>
+      </c>
+      <c r="D91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="4">
+        <v>43233.246082928235</v>
+      </c>
+      <c r="D92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="4">
+        <v>43233.249723587964</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="4">
+        <v>43233.25093631944</v>
+      </c>
+      <c r="D94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="4">
+        <v>43233.251394618055</v>
+      </c>
+      <c r="D95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="4">
+        <v>43233.25323040509</v>
+      </c>
+      <c r="D96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="4">
+        <v>43233.25588305556</v>
+      </c>
+      <c r="D97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="4">
+        <v>43233.25920849537</v>
+      </c>
+      <c r="D98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="4">
+        <v>43233.25993042824</v>
+      </c>
+      <c r="D99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="4">
+        <v>43233.26163550926</v>
+      </c>
+      <c r="D100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="4">
+        <v>43233.26244474537</v>
+      </c>
+      <c r="D101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="4">
+        <v>43233.2626232176</v>
+      </c>
+      <c r="D102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="4">
+        <v>43233.265892152776</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="4">
+        <v>43233.265926064814</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="4">
+        <v>43233.26714597222</v>
+      </c>
+      <c r="D105" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="4">
+        <v>43233.267346759254</v>
+      </c>
+      <c r="D106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="4">
+        <v>43233.267584814814</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="4">
+        <v>43233.267803055554</v>
+      </c>
+      <c r="D108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="4">
+        <v>43233.26840064814</v>
+      </c>
+      <c r="D109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="4">
+        <v>43233.27064418982</v>
+      </c>
+      <c r="D110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="4">
+        <v>43233.271197974536</v>
+      </c>
+      <c r="D111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="4">
+        <v>43233.27363270833</v>
+      </c>
+      <c r="D112" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="4">
+        <v>43233.273798622686</v>
+      </c>
+      <c r="D113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="4">
+        <v>43233.27582983796</v>
+      </c>
+      <c r="D114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="4">
+        <v>43233.275846805554</v>
+      </c>
+      <c r="D115" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" s="4">
+        <v>43233.2758666088</v>
+      </c>
+      <c r="D116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C117" s="4">
+        <v>43233.27587373843</v>
+      </c>
+      <c r="D117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="4">
+        <v>43233.27617225694</v>
+      </c>
+      <c r="D118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="4">
+        <v>43233.276277048615</v>
+      </c>
+      <c r="D119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="4">
+        <v>43233.276528692135</v>
+      </c>
+      <c r="D120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="4">
+        <v>43233.279775717594</v>
+      </c>
+      <c r="D121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" s="4">
+        <v>43233.281147511574</v>
+      </c>
+      <c r="D122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="4">
+        <v>43233.28147392361</v>
+      </c>
+      <c r="D123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="4">
+        <v>43233.28486400463</v>
+      </c>
+      <c r="D124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" s="4">
+        <v>43233.28522193287</v>
+      </c>
+      <c r="D125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" s="4">
+        <v>43233.28528996528</v>
+      </c>
+      <c r="D126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="4">
+        <v>43233.285303032404</v>
+      </c>
+      <c r="D127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" s="4">
+        <v>43233.28549930555</v>
+      </c>
+      <c r="D128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" s="4">
+        <v>43233.28558591435</v>
+      </c>
+      <c r="D129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="4">
+        <v>43233.28578106481</v>
+      </c>
+      <c r="D130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" s="4">
+        <v>43233.28597280092</v>
+      </c>
+      <c r="D131" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>70</v>
+      </c>
+      <c r="C132" s="4">
+        <v>43233.28615950231</v>
+      </c>
+      <c r="D132" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" s="4">
+        <v>43233.28789949074</v>
+      </c>
+      <c r="D133" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" s="4">
+        <v>43233.28922547454</v>
+      </c>
+      <c r="D134" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>130</v>
+      </c>
+      <c r="C135" s="4">
+        <v>43234.05052578704</v>
+      </c>
+      <c r="D135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="4">
+        <v>43234.050906979166</v>
+      </c>
+      <c r="D136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="4">
+        <v>43234.05093547454</v>
+      </c>
+      <c r="D137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="4">
+        <v>43234.052179652776</v>
+      </c>
+      <c r="D138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="4">
+        <v>43234.05467278935</v>
+      </c>
+      <c r="D139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C140" s="4">
+        <v>43234.0565409375</v>
+      </c>
+      <c r="D140" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" s="4">
+        <v>43234.057579699074</v>
+      </c>
+      <c r="D141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" s="4">
+        <v>43234.06050653935</v>
+      </c>
+      <c r="D142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="4">
+        <v>43234.06100673611</v>
+      </c>
+      <c r="D143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>141</v>
+      </c>
+      <c r="C144" s="4">
+        <v>43234.061123935186</v>
+      </c>
+      <c r="D144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="4">
+        <v>43234.061903009264</v>
+      </c>
+      <c r="D145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" s="4">
+        <v>43234.062508194445</v>
+      </c>
+      <c r="D146" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>107</v>
+      </c>
+      <c r="C147" s="4">
+        <v>43234.062584756946</v>
+      </c>
+      <c r="D147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148" s="4">
+        <v>43234.06305358796</v>
+      </c>
+      <c r="D148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>146</v>
+      </c>
+      <c r="C149" s="4">
+        <v>43234.06326440972</v>
+      </c>
+      <c r="D149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" s="4">
+        <v>43234.06631380787</v>
+      </c>
+      <c r="D150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" s="4">
+        <v>43234.0669090625</v>
+      </c>
+      <c r="D151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152" s="4">
+        <v>43234.06737089121</v>
+      </c>
+      <c r="D152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153" s="4">
+        <v>43234.06746452546</v>
+      </c>
+      <c r="D153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>107</v>
+      </c>
+      <c r="C154" s="4">
+        <v>43234.06791258102</v>
+      </c>
+      <c r="D154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="4">
+        <v>43234.06855881945</v>
+      </c>
+      <c r="D155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="4">
+        <v>43234.06881398148</v>
+      </c>
+      <c r="D156" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" s="4">
+        <v>43234.06902671296</v>
+      </c>
+      <c r="D157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="4">
+        <v>43234.06926135416</v>
+      </c>
+      <c r="D158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="4">
+        <v>43234.069314039356</v>
+      </c>
+      <c r="D159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>107</v>
+      </c>
+      <c r="C160" s="4">
+        <v>43234.06987969908</v>
+      </c>
+      <c r="D160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" s="4">
+        <v>43234.07000335648</v>
+      </c>
+      <c r="D161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162" s="4">
+        <v>43234.07164451389</v>
+      </c>
+      <c r="D162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>107</v>
+      </c>
+      <c r="C163" s="4">
+        <v>43234.07951943287</v>
+      </c>
+      <c r="D163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="4">
+        <v>43234.08376734954</v>
+      </c>
+      <c r="D164" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+      <c r="C165" s="4">
+        <v>43234.092188333336</v>
+      </c>
+      <c r="D165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" s="4">
+        <v>43234.09310372685</v>
+      </c>
+      <c r="D166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" s="4">
+        <v>43234.093185555554</v>
+      </c>
+      <c r="D167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>163</v>
+      </c>
+      <c r="C168" s="4">
+        <v>43234.09323456019</v>
+      </c>
+      <c r="D168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" s="4">
+        <v>43234.09342527778</v>
+      </c>
+      <c r="D169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" s="4">
+        <v>43234.100002465275</v>
+      </c>
+      <c r="D170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="4">
+        <v>43234.10077179398</v>
+      </c>
+      <c r="D171" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="4">
+        <v>43234.10087326389</v>
+      </c>
+      <c r="D172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>107</v>
+      </c>
+      <c r="C173" s="4">
+        <v>43234.10097064815</v>
+      </c>
+      <c r="D173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" s="4">
+        <v>43234.10101690972</v>
+      </c>
+      <c r="D174" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>171</v>
+      </c>
+      <c r="C175" s="4">
+        <v>43234.101104421294</v>
+      </c>
+      <c r="D175" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" s="4">
+        <v>43234.10128565972</v>
+      </c>
+      <c r="D176" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>173</v>
+      </c>
+      <c r="C177" s="4">
+        <v>43234.102489467594</v>
+      </c>
+      <c r="D177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>163</v>
+      </c>
+      <c r="C178" s="4">
+        <v>43234.10290783565</v>
+      </c>
+      <c r="D178" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>163</v>
+      </c>
+      <c r="C179" s="4">
+        <v>43234.104223692135</v>
+      </c>
+      <c r="D179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>163</v>
+      </c>
+      <c r="C180" s="4">
+        <v>43234.10597959491</v>
+      </c>
+      <c r="D180" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>163</v>
+      </c>
+      <c r="C181" s="4">
+        <v>43234.10643393519</v>
+      </c>
+      <c r="D181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>163</v>
+      </c>
+      <c r="C182" s="4">
+        <v>43234.10669399306</v>
+      </c>
+      <c r="D182" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>163</v>
+      </c>
+      <c r="C183" s="4">
+        <v>43234.107595243055</v>
+      </c>
+      <c r="D183" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" t="s">
+        <v>163</v>
+      </c>
+      <c r="C184" s="4">
+        <v>43234.11037589121</v>
+      </c>
+      <c r="D184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>181</v>
+      </c>
+      <c r="C185" s="4">
+        <v>43234.11067116898</v>
+      </c>
+      <c r="D185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>181</v>
+      </c>
+      <c r="C186" s="4">
+        <v>43234.110803483796</v>
+      </c>
+      <c r="D186" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>163</v>
+      </c>
+      <c r="C187" s="4">
+        <v>43234.111491331016</v>
+      </c>
+      <c r="D187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" t="s">
+        <v>163</v>
+      </c>
+      <c r="C188" s="4">
+        <v>43234.11168803241</v>
+      </c>
+      <c r="D188" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>163</v>
+      </c>
+      <c r="C189" s="4">
+        <v>43234.11608723379</v>
+      </c>
+      <c r="D189" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>163</v>
+      </c>
+      <c r="C190" s="4">
+        <v>43234.11625003473</v>
+      </c>
+      <c r="D190" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>163</v>
+      </c>
+      <c r="C191" s="4">
+        <v>43234.1172491551</v>
+      </c>
+      <c r="D191" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>163</v>
+      </c>
+      <c r="C192" s="4">
+        <v>43234.117453321756</v>
+      </c>
+      <c r="D192" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>163</v>
+      </c>
+      <c r="C193" s="4">
+        <v>43234.11781556713</v>
+      </c>
+      <c r="D193" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>163</v>
+      </c>
+      <c r="C194" s="4">
+        <v>43234.11941613426</v>
+      </c>
+      <c r="D194" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>163</v>
+      </c>
+      <c r="C195" s="4">
+        <v>43234.11967939815</v>
+      </c>
+      <c r="D195" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" t="s">
+        <v>163</v>
+      </c>
+      <c r="C196" s="4">
+        <v>43234.12247916667</v>
+      </c>
+      <c r="D196" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>163</v>
+      </c>
+      <c r="C197" s="4">
+        <v>43234.12279326389</v>
+      </c>
+      <c r="D197" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>163</v>
+      </c>
+      <c r="C198" s="4">
+        <v>43234.12380400463</v>
+      </c>
+      <c r="D198" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>163</v>
+      </c>
+      <c r="C199" s="4">
+        <v>43234.12470141204</v>
+      </c>
+      <c r="D199" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>163</v>
+      </c>
+      <c r="C200" s="4">
+        <v>43234.12506928241</v>
+      </c>
+      <c r="D200" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>167</v>
+      </c>
+      <c r="C201" s="4">
+        <v>43234.12561766204</v>
+      </c>
+      <c r="D201" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>163</v>
+      </c>
+      <c r="C202" s="4">
+        <v>43234.12587726852</v>
+      </c>
+      <c r="D202" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>163</v>
+      </c>
+      <c r="C203" s="4">
+        <v>43234.1262416088</v>
+      </c>
+      <c r="D203" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>163</v>
+      </c>
+      <c r="C204" s="4">
+        <v>43234.12654297454</v>
+      </c>
+      <c r="D204" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>163</v>
+      </c>
+      <c r="C205" s="4">
+        <v>43234.12901019676</v>
+      </c>
+      <c r="D205" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>163</v>
+      </c>
+      <c r="C206" s="4">
+        <v>43234.12933052084</v>
+      </c>
+      <c r="D206" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" t="s">
+        <v>163</v>
+      </c>
+      <c r="C207" s="4">
+        <v>43234.12942195602</v>
+      </c>
+      <c r="D207" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>163</v>
+      </c>
+      <c r="C208" s="4">
+        <v>43234.12980920139</v>
+      </c>
+      <c r="D208" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/track_mantenimiento.xlsx
+++ b/track_mantenimiento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="72">
   <si>
     <t>TIPO DE PROBLEMA</t>
   </si>
@@ -31,13 +31,205 @@
     <t>Electrico</t>
   </si>
   <si>
-    <t>compresor detenido</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>1:49</t>
+    <t>Pata de cabra 4</t>
+  </si>
+  <si>
+    <t>17:24</t>
+  </si>
+  <si>
+    <t>pata de cabra 5</t>
+  </si>
+  <si>
+    <t>pata de cabra 8</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>pata de cabra 6</t>
+  </si>
+  <si>
+    <t>pata de cabra 9</t>
+  </si>
+  <si>
+    <t>17:26</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>17:27</t>
+  </si>
+  <si>
+    <t>17:28</t>
+  </si>
+  <si>
+    <t>linea 10</t>
+  </si>
+  <si>
+    <t>17:31</t>
+  </si>
+  <si>
+    <t>linea 7</t>
+  </si>
+  <si>
+    <t>17:32</t>
+  </si>
+  <si>
+    <t>17:33</t>
+  </si>
+  <si>
+    <t>linea 20</t>
+  </si>
+  <si>
+    <t>linea 1</t>
+  </si>
+  <si>
+    <t>17:38</t>
+  </si>
+  <si>
+    <t>linea 5</t>
+  </si>
+  <si>
+    <t>17:39</t>
+  </si>
+  <si>
+    <t>calefactor linea 7</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>calefactor linea 10</t>
+  </si>
+  <si>
+    <t>calefactor linea 9</t>
+  </si>
+  <si>
+    <t>17:46</t>
+  </si>
+  <si>
+    <t>calefactor linea 4</t>
+  </si>
+  <si>
+    <t>17:47</t>
+  </si>
+  <si>
+    <t>rb1</t>
+  </si>
+  <si>
+    <t>rb2</t>
+  </si>
+  <si>
+    <t>17:48</t>
+  </si>
+  <si>
+    <t>compresor</t>
+  </si>
+  <si>
+    <t>calefactor linea 6</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>calefactor liena 2</t>
+  </si>
+  <si>
+    <t>calefactor lienea 2</t>
+  </si>
+  <si>
+    <t>17:52</t>
+  </si>
+  <si>
+    <t>calefactor linea 3</t>
+  </si>
+  <si>
+    <t>17:56</t>
+  </si>
+  <si>
+    <t>17:57</t>
+  </si>
+  <si>
+    <t>linea 8</t>
+  </si>
+  <si>
+    <t>linea 3</t>
+  </si>
+  <si>
+    <t>linea 2</t>
+  </si>
+  <si>
+    <t>17:58</t>
+  </si>
+  <si>
+    <t>17:59</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>18:7</t>
+  </si>
+  <si>
+    <t>18:12</t>
+  </si>
+  <si>
+    <t>linea 4</t>
+  </si>
+  <si>
+    <t>calefactor 3</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>clefactor 3</t>
+  </si>
+  <si>
+    <t>18:17</t>
+  </si>
+  <si>
+    <t>18:18</t>
+  </si>
+  <si>
+    <t>calefactor 4</t>
+  </si>
+  <si>
+    <t>18:24</t>
+  </si>
+  <si>
+    <t>18:27</t>
+  </si>
+  <si>
+    <t>18:28</t>
+  </si>
+  <si>
+    <t>liena 1</t>
+  </si>
+  <si>
+    <t>18:29</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>linea 100</t>
+  </si>
+  <si>
+    <t>18:31</t>
+  </si>
+  <si>
+    <t>18:34</t>
+  </si>
+  <si>
+    <t>18:36</t>
+  </si>
+  <si>
+    <t>18:37</t>
   </si>
 </sst>
 </file>
@@ -101,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -112,6 +304,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -462,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>43232.168107731486</v>
+        <v>43234.89190025463</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -473,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>43232.168107731486</v>
+        <v>43234.89211231482</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -487,60 +680,1236 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>43232.20074861111</v>
+        <v>43234.89253759259</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43234.89282853009</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="58.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43234.89327409722</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43234.89373048611</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43234.89383053241</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43234.894198622686</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43234.89433840278</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43234.89495956019</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43234.89660989583</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43234.89740328703</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43234.89827356482</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43234.898477800925</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43234.901914120375</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43234.90221622685</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43234.90243945602</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43234.90681649305</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43234.906908958335</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43234.90711193287</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43234.90769569445</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43234.907886180554</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43234.90871428241</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43234.908876319445</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43234.90897446759</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43234.90987775463</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43234.91002048611</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43234.911434849535</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43234.9142502662</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43234.914912002314</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43234.91501818287</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43234.91522439815</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43234.915299155095</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43234.91543498843</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43234.915745439816</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43234.9165937037</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43234.91695515046</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43234.922102488425</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43234.925211863425</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43234.92564202547</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43234.92720630787</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43234.928486979166</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43234.928844027774</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43234.9298602662</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43234.93356942129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43234.93587489583</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43234.93609758102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43234.936436840275</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43234.93689824074</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43234.93762034722</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43234.937700821756</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43234.93801008102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43234.938497905096</v>
+      </c>
+      <c r="D54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43234.9407766088</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43234.94178569445</v>
+      </c>
+      <c r="D56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43234.94277738426</v>
+      </c>
+      <c r="D57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="4"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="4"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="4"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="4"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="4"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="4"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="4"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="4"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="4"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="4"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="4"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="4"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="4"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="4"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="4"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="4"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="4"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="4"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="4"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="4"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="4"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="4"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="4"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="4"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="4"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="4"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="4"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="4"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="4"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="4"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="4"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="4"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="4"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="4"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="4"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="4"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="4"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="4"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="4"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
